--- a/src/data/permission-rules-filtered/education_permission_filtered.xlsx
+++ b/src/data/permission-rules-filtered/education_permission_filtered.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>antecedents</t>
   </si>
@@ -37,25 +37,28 @@
     <t>conviction</t>
   </si>
   <si>
+    <t>antecedent_len</t>
+  </si>
+  <si>
+    <t>consequent_len</t>
+  </si>
+  <si>
+    <t>combo_len</t>
+  </si>
+  <si>
+    <t>frozenset({'ACCESS_NETWORK_STATE'})</t>
+  </si>
+  <si>
+    <t>frozenset({'ACCESS_NETWORK_STATE', 'WAKE_LOCK'})</t>
+  </si>
+  <si>
     <t>frozenset({'WAKE_LOCK', 'INTERNET'})</t>
   </si>
   <si>
+    <t>frozenset({'INTERNET'})</t>
+  </si>
+  <si>
     <t>frozenset({'WAKE_LOCK'})</t>
-  </si>
-  <si>
-    <t>frozenset({'WAKE_LOCK', 'BIND_GET_INSTALL_REFERRER_SERVICE'})</t>
-  </si>
-  <si>
-    <t>frozenset({'WRITE_EXTERNAL_STORAGE', 'INTERNET'})</t>
-  </si>
-  <si>
-    <t>frozenset({'BIND_GET_INSTALL_REFERRER_SERVICE'})</t>
-  </si>
-  <si>
-    <t>frozenset({'INTERNET', 'BIND_GET_INSTALL_REFERRER_SERVICE'})</t>
-  </si>
-  <si>
-    <t>frozenset({'INTERNET'})</t>
   </si>
   <si>
     <t>inf</t>
@@ -416,13 +419,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,97 +447,206 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>0.9102564102564102</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1.012987012987013</v>
+      </c>
+      <c r="F2">
+        <v>0.01166995397764625</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
-        <v>0.6538461538461539</v>
-      </c>
-      <c r="D2">
-        <v>0.7727272727272727</v>
-      </c>
-      <c r="E2">
-        <v>1.181818181818182</v>
-      </c>
-      <c r="F2">
-        <v>0.1005917159763313</v>
-      </c>
-      <c r="G2">
-        <v>1.523076923076923</v>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1.012987012987013</v>
+      </c>
+      <c r="F3">
+        <v>0.01068376068376065</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="C3">
-        <v>0.6538461538461539</v>
-      </c>
-      <c r="D3">
-        <v>0.7727272727272727</v>
-      </c>
-      <c r="E3">
-        <v>1.181818181818182</v>
-      </c>
-      <c r="F3">
-        <v>0.1005917159763313</v>
-      </c>
-      <c r="G3">
-        <v>1.523076923076923</v>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="D4">
+        <v>0.9848484848484848</v>
+      </c>
+      <c r="E4">
+        <v>1.081946222791293</v>
+      </c>
+      <c r="F4">
+        <v>0.0631163708086786</v>
+      </c>
+      <c r="G4">
+        <v>5.92307692307693</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>0.6538461538461539</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1.012987012987013</v>
-      </c>
-      <c r="F4">
-        <v>0.008382642998027601</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0.6025641025641025</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D5">
-        <v>0.8545454545454545</v>
+        <v>0.9154929577464788</v>
       </c>
       <c r="E5">
-        <v>1.009917355371901</v>
+        <v>1.081946222791293</v>
       </c>
       <c r="F5">
-        <v>0.005917159763313529</v>
+        <v>0.0631163708086786</v>
       </c>
       <c r="G5">
-        <v>1.057692307692308</v>
+        <v>1.820512820512821</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="D6">
+        <v>0.9154929577464788</v>
+      </c>
+      <c r="E6">
+        <v>1.081946222791293</v>
+      </c>
+      <c r="F6">
+        <v>0.0631163708086786</v>
+      </c>
+      <c r="G6">
+        <v>1.820512820512821</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="D7">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="E7">
+        <v>1.012987012987013</v>
+      </c>
+      <c r="F7">
+        <v>0.01084812623274156</v>
+      </c>
+      <c r="G7">
+        <v>1.076923076923077</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
